--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t xml:space="preserve">project_id</t>
   </si>
@@ -489,7 +489,10 @@
     <t xml:space="preserve">Deep sea samples.</t>
   </si>
   <si>
-    <t xml:space="preserve">People missing mail: Ronnie Glud</t>
+    <t xml:space="preserve">Clemens Schauberger &lt;schauberger@biology.sdu.dk&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per Halkjær Nielsen &lt;phn@bio.aau.dk&gt;; Ronnie Glud &lt;rnglud@biology.sdu.dk&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">P12_4/P12_4_metadata_summary.csv</t>
@@ -528,7 +531,7 @@
     <t xml:space="preserve">Samples collected from water plants. Filtered onto filters.</t>
   </si>
   <si>
-    <t xml:space="preserve">Responsible: Peter Roslev, email to be fetched </t>
+    <t xml:space="preserve">Peter Roslev &lt;pr@bio.aau.dk&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">P16_1/P16_1_metadata_summary.csv</t>
@@ -543,6 +546,9 @@
     <t xml:space="preserve">P16_3</t>
   </si>
   <si>
+    <t xml:space="preserve">Barth F. Smets &lt;bfsm@dtu.dk&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">P16_3/P16_3_metadata_summary.csv</t>
   </si>
   <si>
@@ -552,7 +558,7 @@
     <t xml:space="preserve">Urban - Soil</t>
   </si>
   <si>
-    <t xml:space="preserve">Soil collected from Danish cities across Denmark, up to 3 soil samples from same city covering different areatypes, ie parks, industrial, side of the road etc (same cities are also collected urban ponds P05_2 and rainwater P05_1).</t>
+    <t xml:space="preserve">Soil collected from Danish cities across Denmark, up to 3 soil samples from same city covering different areatypes, e.g. parks, industrial, side of the road etc (same cities are also collected urban ponds P05_2 and rainwater P05_1).</t>
   </si>
   <si>
     <t xml:space="preserve">P17_1/P17_1_metadata_summary.csv</t>
@@ -1041,7 +1047,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1708,26 +1714,26 @@
         <v>157</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" t="s">
+        <v>158</v>
+      </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>158</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G36" s="2"/>
       <c r="H36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
@@ -1738,18 +1744,18 @@
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
@@ -1760,37 +1766,37 @@
       </c>
       <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" t="s">
+        <v>172</v>
+      </c>
       <c r="F39" t="s">
         <v>24</v>
       </c>
-      <c r="G39" t="s">
-        <v>171</v>
-      </c>
+      <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1800,36 +1806,38 @@
       </c>
       <c r="G40" s="2"/>
       <c r="H40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" t="s">
+        <v>177</v>
+      </c>
       <c r="F41" t="s">
         <v>24</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1838,15 +1846,15 @@
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1855,18 +1863,18 @@
         <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1876,7 +1884,7 @@
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1903,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1906,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
@@ -1914,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -1930,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
@@ -1938,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -1946,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
@@ -1954,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
@@ -1962,7 +1970,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t xml:space="preserve">project_id</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t xml:space="preserve">Urban - Archaeological</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torsten Nygård Kristensen &lt;tnk@bio.aau.dk&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">P19_1/P19_1_metadata_summary.csv</t>
@@ -1878,13 +1881,15 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" t="s">
+        <v>189</v>
+      </c>
       <c r="F44" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1908,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1914,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
@@ -1922,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
@@ -1930,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5">
@@ -1938,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6">
@@ -1946,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7">
@@ -1954,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
@@ -1962,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
@@ -1970,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -435,7 +435,8 @@
     <t xml:space="preserve"> Natural - ??</t>
   </si>
   <si>
-    <t xml:space="preserve">AC extended</t>
+    <t xml:space="preserve">The samples were collected from six different habitat types from the European Habitats Directive, comprising three types of grasslands (Calcareous grassland, Acidic grassland, and Sandy grassland) and three types of heathlands (Dry heath, Wet heath and Fixed dune). A total of 19 different locations (three to four locations representing each habitat type) were examined (Fig. 1A). Within each location, field surveys were conducted in three different sites (Fig. 1B) to cover variation within each location. (with the exception of five locations, where it was only possible to examine two sites, due to the limited area of the habitat type in question). Each site consisted of a circle with a radius of 5 meters (= 78.5 m2). A minimum distance of 20 meters was kept between sites. All field surveys were conducted in August and September 2020.
+Prior to the collection of soil samples, botanical surveys were conducted by determining all species rooted within the site (complete species list, presence/absence) and positioning three pinpoint frames to analyse the frequency of the plant species within the area of the pinpoint frame. Soil samples (depth 0-16 cm) were collected at the centre of each pinpoint frame (the squares with crosses on Fig. 1C), after removal of vegetation and litter, and kept in a cool box. A subset of the three collected samples per site were pooled (resulting in the 55 soil samples in P08_2) but the rest was kept as single-samples (the 132 samples from this excel-file). Originally there were 165 single-samples, but some of them were discarded and therefore not sequenced or included in the metadata.</t>
   </si>
   <si>
     <t xml:space="preserve">Anne-Cathrine Storgaard Danielsen &lt;acsd@agro.au.dk&gt;</t>

--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -174,7 +174,7 @@
     <t xml:space="preserve">Camilla Lemming &lt;cal@seges.dk&gt;; Rita Hørfarter &lt;rih@seges.dk&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">OBS: Date is estimated from a report that mentions that samples are taken in february. https://www.landbrugsinfo.dk/public/f/2/f/godskning_kvalstofprognosen_2018. Publications: So far unclear if we should make dedicated joint publication on this dataset.</t>
+    <t xml:space="preserve">OBS: Date is estimated from a report that mentions that samples are taken in february. https://www.landbrugsinfo.dk/public/f/2/f/godskning_kvalstofprognosen_2018. Publications: So far unclear if we should make dedicated joint publication on this dataset. The sampling occurred over 12 days (3-14 Feb in 2020 and 1-12 Feb 2021) and in case the sampling date was missing we used the middle of the sampling period (8 and 6 Feb for 2020 and 2021 respectively). 14 samples have been confirmed coming from not carachterised fields.</t>
   </si>
   <si>
     <t xml:space="preserve">P04_3/P04_3_metadata_summary.csv</t>

--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t xml:space="preserve">project_id</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t xml:space="preserve">Philip Francis Thomsen &lt;pfthomsen@bio.au.dk&gt;; Martin Johannesen Klepke &lt;martinjk@bio.au.dk&gt;; Marie Vestergård &lt;mv@bio.au.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samples MFD10339 and MFD10290 had labels that were impossible to distinguish, therefore are removed from the analysis.</t>
   </si>
   <si>
     <t xml:space="preserve">P11_2/P11_2_metadata_summary.csv</t>
@@ -1826,248 +1829,250 @@
       <c r="F31" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" t="s">
+        <v>169</v>
+      </c>
       <c r="H31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F37" t="s">
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F39" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F40" t="s">
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2079,13 +2084,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2093,63 +2098,63 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F44" t="s">
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F45" t="s">
         <v>36</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2175,7 +2180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2186,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
@@ -2194,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
@@ -2202,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5">
@@ -2210,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6">
@@ -2218,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7">
@@ -2226,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8">
@@ -2234,7 +2239,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9">
@@ -2242,7 +2247,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -523,7 +523,7 @@
     <t xml:space="preserve">Philip Francis Thomsen &lt;pfthomsen@bio.au.dk&gt;; Martin Johannesen Klepke &lt;martinjk@bio.au.dk&gt;; Marie Vestergård &lt;mv@bio.au.dk</t>
   </si>
   <si>
-    <t xml:space="preserve">Samples MFD10339 and MFD10290 had labels that were impossible to distinguish, therefore are removed from the analysis.</t>
+    <t xml:space="preserve">Samples MFD10339 and MFD10290 had labels that were impossible to distinguish, therefore they have been removed from the analysis.</t>
   </si>
   <si>
     <t xml:space="preserve">P11_2/P11_2_metadata_summary.csv</t>

--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t xml:space="preserve">project_id</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">P06_1/P06_1_metadata_summary.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P06_2</t>
   </si>
   <si>
     <t xml:space="preserve">P06_3</t>
@@ -523,7 +526,7 @@
     <t xml:space="preserve">Philip Francis Thomsen &lt;pfthomsen@bio.au.dk&gt;; Martin Johannesen Klepke &lt;martinjk@bio.au.dk&gt;; Marie Vestergård &lt;mv@bio.au.dk</t>
   </si>
   <si>
-    <t xml:space="preserve">Samples MFD10339 and MFD10290 had labels that were impossible to distinguish, therefore are removed from the analysis.</t>
+    <t xml:space="preserve">Samples MFD10339 and MFD10290 had labels that were impossible to distinguish, therefore they have been removed from the analysis.</t>
   </si>
   <si>
     <t xml:space="preserve">P11_2/P11_2_metadata_summary.csv</t>
@@ -746,6 +749,18 @@
   </si>
   <si>
     <t xml:space="preserve">P25_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other - LHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous samples from LHP. Samples are from 2008 and was thawed and put in the refrigerator 2 months before subdivision. Samples are either from chalk mine, salt vats or bogs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lars Haastrup Pedersen &lt;lhp@bio.aau.dk&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P25_1/P25_1_metadata_summary.csv</t>
   </si>
   <si>
     <t xml:space="preserve">variable</t>
@@ -1498,309 +1513,301 @@
       <c r="A17" t="s">
         <v>94</v>
       </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" t="s">
-        <v>97</v>
-      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
         <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" t="s">
         <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
         <v>110</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
         <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" t="s">
+        <v>142</v>
+      </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
       <c r="F29" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1809,360 +1816,390 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" t="s">
         <v>165</v>
-      </c>
-      <c r="B31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H32" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F33" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H33" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="G34" t="s">
+        <v>183</v>
+      </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
       </c>
-      <c r="G35" t="s">
-        <v>191</v>
-      </c>
+      <c r="G35" s="2"/>
       <c r="H35" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F36" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H36" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" t="s">
+        <v>210</v>
+      </c>
       <c r="H39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F40" t="s">
         <v>36</v>
       </c>
-      <c r="G40" t="s">
-        <v>219</v>
-      </c>
+      <c r="G40" s="2"/>
       <c r="H40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" t="s">
+        <v>220</v>
+      </c>
       <c r="H41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" t="s">
         <v>225</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>226</v>
       </c>
-      <c r="B43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C43" t="s">
-        <v>228</v>
-      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" t="s">
-        <v>229</v>
-      </c>
-      <c r="H43" t="s">
-        <v>230</v>
-      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>230</v>
+      </c>
+      <c r="H44" t="s">
         <v>231</v>
-      </c>
-      <c r="B44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" t="s">
-        <v>236</v>
-      </c>
-      <c r="H44" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>237</v>
+      </c>
+      <c r="H45" t="s">
         <v>238</v>
-      </c>
-      <c r="B45" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" t="s">
         <v>243</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2180,7 +2217,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2191,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -2199,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
@@ -2207,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
@@ -2215,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6">
@@ -2223,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7">
@@ -2231,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8">
@@ -2239,7 +2276,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
@@ -2247,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t xml:space="preserve">project_id</t>
   </si>
@@ -241,6 +241,21 @@
   </si>
   <si>
     <t xml:space="preserve">P04_7/P04_7_metadata_summary.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P04_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture - LUCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCAS: Land Use and Coverage Area frame Survey, a project started by EUROPEAN SOIL DATA CENTRE (ESDAC). Project homepage: https://esdac.jrc.ec.europa.eu/projects/lucas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous created as P26_1 Natural/Agriculture? – Greenland 123 samples supplied by Foulum – dried soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P04_8/P04_8_metadata_summary.csv</t>
   </si>
   <si>
     <t xml:space="preserve">P05_1</t>
@@ -463,6 +478,21 @@
     <t xml:space="preserve">P09_2/P09_2_metadata_summary.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P09_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakes - Sediments Grundfos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment samples from Grundfos lake (Ormstrup Gods) by SDU. Samples from 5 stations in the lake – and from 5 different sediment depth layers (spanning 0-20 cm). Sampling sets from August 2022 and February 2023. There are 50 samples in total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible: Poul Toft Frederiksen, no mail found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P09_4/P09_4_metadata_summary.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">P10_1</t>
   </si>
   <si>
@@ -733,6 +763,21 @@
     <t xml:space="preserve">P18_1/P18_1_metadata_summary.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P18_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MfD Harbour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harbours around DK, surfaces are scraped of stone, tree. To be used for other investigations at DTU. Are interested in BCG-producers, such as Phaeobacter or Pseudoalteromonas.  Samples collected from east and west “sides” of Jylland. Collected by our student helpers Majbrit and Camilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lone Gram, &lt;gram@bio.dtu.dk&gt;; Peter Bing Svendsen, &lt;pesven@dtu.dk&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P18_2/P18_2_metadata_summary.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">P19_1</t>
   </si>
   <si>
@@ -746,6 +791,24 @@
   </si>
   <si>
     <t xml:space="preserve">P19_1/P19_1_metadata_summary.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban - Landfills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 samples from AV Miljø landfill at Avedøre Holme in Hvidovre, Copenhagen. 4 soil samples and 2 leachate samples. Furthermore 22 laboratory incubations with different plastic polymers. The 2 leachate samples were acquired as DNA extracted with FastDNA™ SPIN Kit for Soil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristiano Varrone &lt;cva@bio.aau.dk&gt;; Passanun Lomwongsopon &lt;paslom@bio.aau.dk&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incubations doesn’t fit the remaining MFD samples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20_1/P20_1_metadata_summary.csv</t>
   </si>
   <si>
     <t xml:space="preserve">P25_1</t>
@@ -1451,32 +1514,34 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
         <v>79</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>85</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" t="s">
-        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -1496,139 +1561,137 @@
         <v>90</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
         <v>91</v>
       </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>92</v>
-      </c>
-      <c r="H16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" t="s">
-        <v>98</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s">
         <v>101</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
         <v>102</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>103</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>106</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="2"/>
       <c r="E20" t="s">
         <v>108</v>
       </c>
       <c r="F20" t="s">
         <v>36</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
         <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
         <v>111</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>112</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
       <c r="F21" t="s">
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>118</v>
@@ -1649,82 +1712,82 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
         <v>123</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>124</v>
-      </c>
-      <c r="G23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
         <v>127</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>129</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
         <v>130</v>
       </c>
-      <c r="F24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>131</v>
-      </c>
-      <c r="H24" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
         <v>133</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>134</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
         <v>136</v>
       </c>
-      <c r="F25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>137</v>
-      </c>
-      <c r="H25" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
         <v>139</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>140</v>
-      </c>
-      <c r="C26" t="s">
-        <v>141</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
         <v>142</v>
@@ -1745,12 +1808,14 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
         <v>147</v>
       </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="2"/>
       <c r="H27" t="s">
         <v>148</v>
       </c>
@@ -1767,98 +1832,98 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="F28" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" t="s">
-        <v>156</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" t="s">
+        <v>157</v>
+      </c>
       <c r="H29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
       <c r="F30" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
       <c r="F31" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" t="s">
-        <v>169</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s">
         <v>36</v>
       </c>
-      <c r="G32" t="s">
-        <v>170</v>
-      </c>
+      <c r="G32" s="2"/>
       <c r="H32" t="s">
         <v>171</v>
       </c>
@@ -1874,61 +1939,59 @@
         <v>174</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" t="s">
         <v>175</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" t="s">
         <v>178</v>
-      </c>
-      <c r="B34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" t="s">
-        <v>180</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" t="s">
         <v>181</v>
-      </c>
-      <c r="F34" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" t="s">
+        <v>186</v>
+      </c>
       <c r="H35" t="s">
         <v>187</v>
       </c>
@@ -1948,105 +2011,105 @@
         <v>191</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
         <v>196</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" t="s">
         <v>197</v>
-      </c>
-      <c r="F37" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="G39" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" t="s">
         <v>210</v>
-      </c>
-      <c r="H39" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" t="s">
         <v>212</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>213</v>
-      </c>
-      <c r="C40" t="s">
-        <v>214</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
         <v>215</v>
       </c>
-      <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="2"/>
       <c r="H40" t="s">
         <v>216</v>
       </c>
@@ -2056,14 +2119,14 @@
         <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
@@ -2080,125 +2143,219 @@
         <v>222</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F42" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>226</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="E43" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>230</v>
+      </c>
+      <c r="H43" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" t="s">
+        <v>234</v>
+      </c>
       <c r="F44" t="s">
         <v>36</v>
       </c>
-      <c r="G44" t="s">
-        <v>230</v>
-      </c>
+      <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>232</v>
-      </c>
-      <c r="B45" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" t="s">
-        <v>235</v>
-      </c>
-      <c r="E45" t="s">
         <v>236</v>
       </c>
-      <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>237</v>
-      </c>
-      <c r="H45" t="s">
-        <v>238</v>
-      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" t="s">
         <v>239</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
         <v>240</v>
       </c>
-      <c r="C46" t="s">
+      <c r="H46" t="s">
         <v>241</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s">
-        <v>242</v>
-      </c>
-      <c r="F46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" t="s">
         <v>244</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>245</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>246</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
         <v>247</v>
       </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="2"/>
       <c r="H47" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>263</v>
+      </c>
+      <c r="H50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2374,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2228,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
@@ -2236,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
@@ -2244,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
@@ -2252,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
@@ -2260,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7">
@@ -2268,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
@@ -2276,7 +2433,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9">
@@ -2284,7 +2441,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t xml:space="preserve">project_id</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t xml:space="preserve">Erik Aude &lt;eau@habitatvision.dk&gt;; Lene Thomsen &lt;lt@habitatvision.dk&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original habitat typenumbers provided as in: https://ecos.au.dk/fileadmin/ecos/Temasider/Raadgivning/TA-besigtigelse_af_naturarealer-105.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">P08_1/P08_1_metadata_summary.csv</t>
@@ -478,6 +481,24 @@
     <t xml:space="preserve">P09_2/P09_2_metadata_summary.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P09_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakes -Sediments SDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment samples from 10 lakes, most in 2-3 depths (0-20 cm). Are used for chemistry, including polyp, analyses at SDU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasper Reitzel &lt;reitzel@biology.sdu.dk&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marta has made amplicon analyses on the samples. Metadata exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P09_3/P09_3_metadata_summary.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">P09_4</t>
   </si>
   <si>
@@ -649,6 +670,24 @@
     <t xml:space="preserve">P12_4/P12_4_metadata_summary.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P12_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea sediments – Baltic sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment samples from Baltic Sea.  Sampled by “Miljøstyrelsen”, and they have extensive metadata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanne Kjellerup &lt;Sanne.Kjellerup@wsp.dk&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The samples arrived in December 2023. Initially created as P22_1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P12_5/P12_5_metadata_summary.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">P13_1</t>
   </si>
   <si>
@@ -727,6 +766,12 @@
     <t xml:space="preserve">P16_4</t>
   </si>
   <si>
+    <t xml:space="preserve">Urban – Groundwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P16_4/P16_4_metadata_summary.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">P17_1</t>
   </si>
   <si>
@@ -809,6 +854,24 @@
   </si>
   <si>
     <t xml:space="preserve">P20_1/P20_1_metadata_summary.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P21_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freshwater Seep - AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment samples from freshwater seep (kildevæld), Salten Skov. Has special Fe-hydroxid precipitates which are rare in Denmark. Is used as Mars-similar location. Paper: https://www.tandfonline.com/doi/abs/10.1080/01490450903232165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kai Finster &lt;kai.finster@bio.au.dk&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 samples. Metadata, including photos exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P21_1/P21_1_metadata_summary.csv</t>
   </si>
   <si>
     <t xml:space="preserve">P25_1</t>
@@ -1649,44 +1712,46 @@
       <c r="F20" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1694,21 +1759,21 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
@@ -1718,93 +1783,93 @@
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
@@ -1814,129 +1879,133 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
       <c r="F29" t="s">
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" t="s">
+        <v>173</v>
+      </c>
       <c r="F32" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1945,73 +2014,69 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" t="s">
-        <v>179</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s">
         <v>36</v>
       </c>
-      <c r="G34" t="s">
-        <v>180</v>
-      </c>
+      <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F36" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>193</v>
@@ -2025,63 +2090,63 @@
         <v>195</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="G37" t="s">
+        <v>200</v>
+      </c>
       <c r="H37" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
       </c>
-      <c r="G38" t="s">
-        <v>202</v>
-      </c>
+      <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>209</v>
@@ -2105,257 +2170,339 @@
         <v>214</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="G40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F42" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" t="s">
+        <v>228</v>
+      </c>
       <c r="H42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F43" t="s">
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H43" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F44" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" t="s">
         <v>236</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" t="s">
+        <v>241</v>
+      </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="E45" t="s">
+        <v>242</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>243</v>
+      </c>
+      <c r="H45" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" t="s">
+        <v>247</v>
+      </c>
       <c r="F46" t="s">
         <v>36</v>
       </c>
-      <c r="G46" t="s">
-        <v>240</v>
-      </c>
+      <c r="G46" s="2"/>
       <c r="H46" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C47" t="s">
-        <v>244</v>
-      </c>
-      <c r="D47" t="s">
-        <v>245</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
         <v>36</v>
       </c>
-      <c r="G47" t="s">
-        <v>247</v>
-      </c>
+      <c r="G47" s="2"/>
       <c r="H47" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" t="s">
-        <v>252</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" t="s">
+        <v>255</v>
+      </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="D49" t="s">
+        <v>260</v>
+      </c>
       <c r="E49" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F49" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" t="s">
+        <v>262</v>
+      </c>
       <c r="H49" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" t="s">
         <v>260</v>
       </c>
-      <c r="C50" t="s">
-        <v>261</v>
-      </c>
-      <c r="D50" s="2"/>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
-        <v>263</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G50" s="2"/>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B51" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" t="s">
-        <v>269</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>278</v>
+      </c>
+      <c r="H52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s">
+        <v>283</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>284</v>
+      </c>
+      <c r="H53" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s">
+        <v>289</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +2521,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2385,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
@@ -2393,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
@@ -2401,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
@@ -2409,7 +2556,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
@@ -2417,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7">
@@ -2425,7 +2572,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8">
@@ -2433,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
@@ -2441,7 +2588,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t xml:space="preserve">project_id</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t xml:space="preserve">P06_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subterranean – Polluted soil, city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep soil test samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per Halkjær Nielsen &lt;phn@bio.aau.dk&gt;; Vibike Rudkjøbing Jørgensen &lt;vrj@bio.aau.dk&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P06_2/P06_2_metadata_summary.csv</t>
   </si>
   <si>
     <t xml:space="preserve">P06_3</t>
@@ -1663,17 +1675,27 @@
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>94</v>
@@ -1681,77 +1703,77 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
         <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1759,21 +1781,21 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
@@ -1783,163 +1805,163 @@
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F29" t="s">
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1947,65 +1969,65 @@
         <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2014,18 +2036,18 @@
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2034,322 +2056,322 @@
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H36" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H37" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H39" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H40" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H41" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F42" t="s">
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H42" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F43" t="s">
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H43" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F44" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" t="s">
         <v>240</v>
       </c>
-      <c r="B45" t="s">
-        <v>236</v>
-      </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F45" t="s">
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H45" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C46" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F46" t="s">
         <v>36</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B47" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" t="s">
         <v>250</v>
-      </c>
-      <c r="C47" t="s">
-        <v>246</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F47" t="s">
         <v>36</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2357,152 +2379,152 @@
         <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H48" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F49" t="s">
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50" t="s">
         <v>264</v>
       </c>
-      <c r="B50" t="s">
-        <v>265</v>
-      </c>
-      <c r="C50" t="s">
-        <v>266</v>
-      </c>
-      <c r="D50" t="s">
-        <v>260</v>
-      </c>
       <c r="E50" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F50" t="s">
         <v>36</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F51" t="s">
         <v>36</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H52" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C53" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F53" t="s">
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H53" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B54" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C54" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2543,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2532,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
@@ -2540,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4">
@@ -2548,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5">
@@ -2556,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6">
@@ -2564,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -2572,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
@@ -2580,7 +2602,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
@@ -2588,7 +2610,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/metadata/mfd_projects.xlsx
+++ b/analysis/metadata/mfd_projects.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t xml:space="preserve">project_id</t>
   </si>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">Camilla Lemming &lt;cal@seges.dk&gt;; Rita Hørfarter &lt;rih@seges.dk&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">OBS: Date is estimated from a report that mentions that samples are taken in february. https://www.landbrugsinfo.dk/public/f/2/f/godskning_kvalstofprognosen_2018. Publications: So far unclear if we should make dedicated joint publication on this dataset. The sampling occurred over 12 days (3-14 Feb in 2020 and 1-12 Feb 2021) and in case the sampling date was missing we used the middle of the sampling period (8 and 6 Feb for 2020 and 2021 respectively). 14 samples have been confirmed coming from not carachterised fields.</t>
+    <t xml:space="preserve">OBS: Date is estimated from a report that mentions that samples are taken in february. https://www.landbrugsinfo.dk/public/f/2/f/godskning_kvalstofprognosen_2018. Publications: So far unclear if we should make dedicated joint publication on this dataset. The sampling occurred over 12 days (3-14 Feb in 2020 and 1-12 Feb 2021) and in case the sampling date was missing we used the middle of the sampling period (8 and 6 Feb for 2020 and 2021 respectively). 14 samples have been confirmed coming from not carachterised fields. In two cases from the 2020 sampling campaing the reported year was 2018 and corrected to 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">P04_3/P04_3_metadata_summary.csv</t>
@@ -420,7 +420,7 @@
     <t xml:space="preserve">Per Halkjær Nielsen &lt;phn@bio.aau.dk&gt;; Thomas Bygh Nymann Jensen &lt;tbnj@bio.aau.dk&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Double check GPS and date.</t>
+    <t xml:space="preserve">10 samples are reallocared to P08_8: Natual - Sinks</t>
   </si>
   <si>
     <t xml:space="preserve">P08_5/P08_5_metadata_summary.csv</t>
@@ -463,6 +463,18 @@
     <t xml:space="preserve">P08_7/P08_7_metadata_summary.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P08_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natural - SINKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samples reallocared from P08_5: Natual - Sustain scapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P08_8/P08_8_metadata_summary.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">P09_1</t>
   </si>
   <si>
@@ -731,6 +743,21 @@
   </si>
   <si>
     <t xml:space="preserve">P13_2/P13_2_metadata_summary.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P13_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban - Biogas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wastewater treatment plant samples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caitlin Margaret Singleton &lt;cms@bio.aau.dk&gt;; Chenjing Jiang &lt;chj@bio.aau.dk&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P13_3/P13_3_metadata_summary.csv</t>
   </si>
   <si>
     <t xml:space="preserve">P16_1</t>
@@ -1890,109 +1917,109 @@
       <c r="B27" t="s">
         <v>150</v>
       </c>
-      <c r="C27" t="s">
-        <v>151</v>
-      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="G27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" t="s">
         <v>152</v>
-      </c>
-      <c r="H27" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
         <v>154</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>155</v>
-      </c>
-      <c r="C28" t="s">
-        <v>156</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" t="s">
         <v>157</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
         <v>159</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>160</v>
-      </c>
-      <c r="C29" t="s">
-        <v>161</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" t="s">
         <v>162</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
         <v>165</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" t="s">
         <v>166</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>168</v>
-      </c>
-      <c r="H30" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
         <v>170</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>171</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="2"/>
       <c r="H31" t="s">
         <v>173</v>
       </c>
@@ -2009,28 +2036,30 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
         <v>179</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>180</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" t="s">
         <v>181</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
       <c r="F33" t="s">
         <v>36</v>
       </c>
@@ -2070,237 +2099,235 @@
         <v>189</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" t="s">
         <v>190</v>
-      </c>
-      <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>191</v>
-      </c>
-      <c r="H35" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
         <v>193</v>
-      </c>
-      <c r="B36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" t="s">
-        <v>195</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" t="s">
         <v>196</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" t="s">
         <v>199</v>
-      </c>
-      <c r="B37" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" t="s">
-        <v>201</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H37" t="s">
         <v>202</v>
-      </c>
-      <c r="F37" t="s">
-        <v>203</v>
-      </c>
-      <c r="G37" t="s">
-        <v>204</v>
-      </c>
-      <c r="H37" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="G38" t="s">
+        <v>208</v>
+      </c>
       <c r="H38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
         <v>211</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" t="s">
         <v>212</v>
-      </c>
-      <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>213</v>
-      </c>
-      <c r="H39" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" t="s">
         <v>215</v>
-      </c>
-      <c r="B40" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" t="s">
-        <v>217</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" t="s">
         <v>218</v>
-      </c>
-      <c r="F40" t="s">
-        <v>219</v>
-      </c>
-      <c r="G40" t="s">
-        <v>220</v>
-      </c>
-      <c r="H40" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" t="s">
         <v>225</v>
-      </c>
-      <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" t="s">
         <v>228</v>
-      </c>
-      <c r="B42" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" t="s">
-        <v>230</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>230</v>
+      </c>
+      <c r="H42" t="s">
         <v>231</v>
-      </c>
-      <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>232</v>
-      </c>
-      <c r="H42" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" t="s">
         <v>234</v>
-      </c>
-      <c r="B43" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" t="s">
-        <v>236</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F43" t="s">
         <v>36</v>
       </c>
       <c r="G43" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" t="s">
         <v>237</v>
-      </c>
-      <c r="H43" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" t="s">
         <v>239</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>240</v>
-      </c>
-      <c r="C44" t="s">
-        <v>241</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" t="s">
         <v>242</v>
-      </c>
-      <c r="F44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s">
         <v>244</v>
-      </c>
-      <c r="B45" t="s">
-        <v>240</v>
       </c>
       <c r="C45" t="s">
         <v>245</v>
@@ -2310,21 +2337,19 @@
         <v>246</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" t="s">
         <v>247</v>
-      </c>
-      <c r="H45" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" t="s">
         <v>249</v>
-      </c>
-      <c r="B46" t="s">
-        <v>240</v>
       </c>
       <c r="C46" t="s">
         <v>250</v>
@@ -2346,185 +2371,231 @@
         <v>253</v>
       </c>
       <c r="B47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" t="s">
         <v>254</v>
-      </c>
-      <c r="C47" t="s">
-        <v>250</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="F47" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" t="s">
+        <v>256</v>
+      </c>
       <c r="H47" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C48" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="E48" t="s">
+        <v>260</v>
+      </c>
       <c r="F48" t="s">
         <v>36</v>
       </c>
-      <c r="G48" t="s">
-        <v>259</v>
-      </c>
+      <c r="G48" s="2"/>
       <c r="H48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C49" t="s">
-        <v>263</v>
-      </c>
-      <c r="D49" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" t="s">
         <v>264</v>
-      </c>
-      <c r="E49" t="s">
-        <v>265</v>
-      </c>
-      <c r="F49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" t="s">
-        <v>266</v>
-      </c>
-      <c r="H49" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
         <v>268</v>
       </c>
-      <c r="B50" t="s">
+      <c r="H50" t="s">
         <v>269</v>
-      </c>
-      <c r="C50" t="s">
-        <v>270</v>
-      </c>
-      <c r="D50" t="s">
-        <v>264</v>
-      </c>
-      <c r="E50" t="s">
-        <v>271</v>
-      </c>
-      <c r="F50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" t="s">
         <v>273</v>
       </c>
-      <c r="B51" t="s">
+      <c r="E51" t="s">
         <v>274</v>
       </c>
-      <c r="C51" t="s">
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
         <v>275</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
         <v>276</v>
-      </c>
-      <c r="F51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" t="s">
         <v>278</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>279</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" t="s">
         <v>281</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>282</v>
-      </c>
-      <c r="H52" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>282</v>
+      </c>
+      <c r="B53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" t="s">
         <v>284</v>
-      </c>
-      <c r="B53" t="s">
-        <v>285</v>
-      </c>
-      <c r="C53" t="s">
-        <v>286</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
         <v>36</v>
       </c>
-      <c r="G53" t="s">
-        <v>288</v>
-      </c>
+      <c r="G53" s="2"/>
       <c r="H53" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C54" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" t="s">
+        <v>291</v>
+      </c>
       <c r="H54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B55" t="s">
         <v>294</v>
+      </c>
+      <c r="C55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s">
+        <v>296</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s">
+        <v>297</v>
+      </c>
+      <c r="H55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s">
+        <v>302</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2543,7 +2614,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -2554,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
@@ -2562,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4">
@@ -2570,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5">
@@ -2578,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
@@ -2586,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7">
@@ -2594,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8">
@@ -2602,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9">
@@ -2610,7 +2681,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
